--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на удержание из заработной платы.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на удержание из заработной платы.xlsx
@@ -66,7 +66,7 @@
     <t>за__________________________________________________________________________________________________________________________________________________________________________________________________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу удержать из моей заработной платы ______________________________________________________________________</t>
+    <t xml:space="preserve">     Прошу удержать из моей заработной платы _____________________________________________________________________________________________________________________________________________</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
       <c r="D26" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S2Cl9onbVi/VPpmEO5/KjTC76Ej9p+BOKEVHypXTggDiQ65Icymtl5t8gCT2hgCli789FRy4/iFlsBEW7Dqs2g==" saltValue="KL6DA8Q/JRbR7c+hU2FEuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
